--- a/02_Data/04_Social indicators/02_Cleaned Data/Poverty.xlsx
+++ b/02_Data/04_Social indicators/02_Cleaned Data/Poverty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\02_Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51157F82-C1DE-4229-ABE2-A450948781E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5CF23-9BED-463F-AA26-FB79466EE4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3210" windowWidth="12870" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
   <si>
-    <t xml:space="preserve">nuts_id </t>
-  </si>
-  <si>
     <t>nuts_level</t>
+  </si>
+  <si>
+    <t>Közép-Magyaország</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Pest</t>
+  </si>
+  <si>
+    <t>Közép-Dunántúl</t>
+  </si>
+  <si>
+    <t>Nyugat-Dunántúl</t>
+  </si>
+  <si>
+    <t>Dél-Dunántúl</t>
+  </si>
+  <si>
+    <t>Észak-Magyarország</t>
+  </si>
+  <si>
+    <t>Észak-Alföld</t>
+  </si>
+  <si>
+    <t>Dél-Alföld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hangary </t>
+  </si>
+  <si>
+    <t>NUTS2</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>nuts_id</t>
+  </si>
+  <si>
+    <t>nuts_name</t>
+  </si>
+  <si>
+    <t>HU31</t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>HU12</t>
+  </si>
+  <si>
+    <t>HU21</t>
+  </si>
+  <si>
+    <t>HU22</t>
+  </si>
+  <si>
+    <t>HU23</t>
+  </si>
+  <si>
+    <t>HU32</t>
+  </si>
+  <si>
+    <t>HU33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +115,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,15 +156,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{47C6DCFB-E647-4B8A-9EEC-F1FCD5342710}"/>
+    <cellStyle name="Normál_F15A" xfId="2" xr:uid="{16DDCA9A-C309-494E-BF9B-EFFB34EF6CE0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,35 +446,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2021</v>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>7.4</v>
+      </c>
+      <c r="F3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>9.4</v>
+      </c>
+      <c r="F4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>8.1</v>
+      </c>
+      <c r="F5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>13.8</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>19.5</v>
+      </c>
+      <c r="F7">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>15.9</v>
+      </c>
+      <c r="F9">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>13.4</v>
+      </c>
+      <c r="F10">
+        <v>15.3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
